--- a/Labs/Lab4/speed_controller.xlsx
+++ b/Labs/Lab4/speed_controller.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7764" windowHeight="4464"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7764" windowHeight="4464" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>adc values</t>
   </si>
@@ -57,6 +61,117 @@
   </si>
   <si>
     <t>int METHOD</t>
+  </si>
+  <si>
+    <t>1000 int METHOD</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>adtimesPW</t>
+  </si>
+  <si>
+    <t>over adc</t>
+  </si>
+  <si>
+    <t>plus min</t>
+  </si>
+  <si>
+    <t>MOTOR_PW = (230* PW_DIFF_SC)/255;</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>u5</t>
+  </si>
+  <si>
+    <t>u4</t>
+  </si>
+  <si>
+    <t>u6</t>
+  </si>
+  <si>
+    <t>T1 = .0693(R1+ R2 )*C1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>milisecond</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>and nick</t>
+  </si>
+  <si>
+    <t>u2a</t>
+  </si>
+  <si>
+    <t>u5a</t>
+  </si>
+  <si>
+    <t>u3a</t>
+  </si>
+  <si>
+    <t>u3</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>quiz</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>hw</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>proj</t>
+  </si>
+  <si>
+    <t>partic</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>extra credit do!</t>
   </si>
 </sst>
 </file>
@@ -92,8 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,15 +493,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -531,7 +652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -544,7 +665,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>5</v>
       </c>
@@ -561,7 +682,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C20">
         <f>255/2</f>
         <v>127.5</v>
@@ -582,12 +703,1548 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>2028</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <f>INT(D29/C29)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>128</v>
+      </c>
+      <c r="D27">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>255</v>
+      </c>
+      <c r="D28">
+        <v>3502</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f>(C28-C26)</f>
+        <v>255</v>
+      </c>
+      <c r="D29">
+        <f>(D28-D26)</f>
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>128</v>
+      </c>
+      <c r="I31">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f>255/2</f>
+        <v>127.5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32">
+        <f>INT(G31*(D29/C29)+D26)</f>
+        <v>2028</v>
+      </c>
+      <c r="H32">
+        <f>INT(H31*(D29/C29)+D26)</f>
+        <v>2767</v>
+      </c>
+      <c r="I32">
+        <f>INT(I31*(D29/C29)+D26)</f>
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36">
+        <f>E35*D29</f>
+        <v>188672</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37">
+        <f>INT(E36/C29)</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <f>2028+E37</f>
+        <v>2767</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>A5-A6</f>
+        <v>1474</v>
+      </c>
+      <c r="B7">
+        <v>230</v>
+      </c>
+      <c r="C7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>B7*A7</f>
+        <v>339020</v>
+      </c>
+      <c r="E8">
+        <v>339020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>INT(B8/C7)</f>
+        <v>1329</v>
+      </c>
+      <c r="E9">
+        <f>E8/255</f>
+        <v>1329.4901960784314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>B9+2028</f>
+        <v>3357</v>
+      </c>
+      <c r="C10">
+        <v>2072</v>
+      </c>
+      <c r="E10">
+        <f>E9+2028</f>
+        <v>3357.4901960784314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <f>C10-C11</f>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Y22"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3">
+        <f>685/(813-80)</f>
+        <v>0.93451568894952253</v>
+      </c>
+      <c r="Y3">
+        <f>(615+80)/813</f>
+        <v>0.85485854858548582</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AA20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="U1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2">
+        <f>11.66666*0.01</f>
+        <v>0.11666660000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <f>35/3</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.82</v>
+      </c>
+      <c r="M4">
+        <f>C4*AVERAGE(E4:F4)</f>
+        <v>30.012499999999996</v>
+      </c>
+      <c r="O4">
+        <v>35</v>
+      </c>
+      <c r="P4">
+        <f>35/3</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="Q4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <f>O4*AVERAGE(Q4:R4)</f>
+        <v>33.162500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>C5*(AVERAGE(E5:K5))</f>
+        <v>4.2549450549450549</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <f>O5*(AVERAGE(Q5:X5))</f>
+        <v>5.9230769230769234</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>2/26</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <f>2/26</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <f>25/8</f>
+        <v>3.125</v>
+      </c>
+      <c r="E7">
+        <f>77/80</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F7">
+        <f>73.5/80</f>
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <f>C7*(AVERAGE(E7:I7))</f>
+        <v>24.40625</v>
+      </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <f>25/8</f>
+        <v>3.125</v>
+      </c>
+      <c r="Q7">
+        <f>77/80</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="R7">
+        <f>73.5/80</f>
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <f>O7*(AVERAGE(Q7:X7))</f>
+        <v>24.62890625</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <f>25/4</f>
+        <v>6.25</v>
+      </c>
+      <c r="E8">
+        <f>83/80</f>
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f>C8*(AVERAGE(E8:F8))</f>
+        <v>25.46875</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <f>25/4</f>
+        <v>6.25</v>
+      </c>
+      <c r="Q8">
+        <f>83/80</f>
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <f>P8*(SUM(Q8:T8))</f>
+        <v>25.234374999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <f>SUM(C4:C9)</f>
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <f>SUM(M4:M9)</f>
+        <v>91.142445054945057</v>
+      </c>
+      <c r="O10">
+        <f>SUM(O4:O9)</f>
+        <v>100</v>
+      </c>
+      <c r="Y10">
+        <f>SUM(Y4:Y9)</f>
+        <v>95.948858173076928</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <f>35/3</f>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="E14">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F14">
+        <v>0.82</v>
+      </c>
+      <c r="M14">
+        <f>C14*AVERAGE(E14:F14)</f>
+        <v>30.012499999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f>12/13</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15">
+        <v>0.75</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+      <c r="I15">
+        <v>0.5</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>C15*(AVERAGE(E15:K15))</f>
+        <v>6.4835164835164836</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>2/26</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <f>25/8</f>
+        <v>3.125</v>
+      </c>
+      <c r="E17">
+        <f>77/80</f>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="F17">
+        <f>73.5/80</f>
+        <v>0.91874999999999996</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>C17*(AVERAGE(E17:I17))</f>
+        <v>24.40625</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <f>25/4</f>
+        <v>6.25</v>
+      </c>
+      <c r="E18">
+        <f>83/80</f>
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>C18*(AVERAGE(E18:F18))</f>
+        <v>25.46875</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f>SUM(C14:C19)</f>
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <f>SUM(M14:M19)</f>
+        <v>93.371016483516485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2</f>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <f>(0.00000016)</f>
+        <v>1.6E-7</v>
+      </c>
+      <c r="D3" s="2">
+        <f>C3</f>
+        <v>1.6E-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>C4*1000</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <f>C5*1000</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <f>(D2*D3)*(D4+D5)</f>
+        <v>4.1025599999999999E-3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>D6*1000</f>
+        <v>4.1025599999999995</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9</f>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H9">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="I9" s="2">
+        <f>H9</f>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10</f>
+        <v>7.0000000000000005E-8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <f>C11*1000</f>
+        <v>19000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f>H11*1000</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <f>C12*1000</f>
+        <v>10000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <v>14</v>
+      </c>
+      <c r="I12">
+        <f>H12*1000</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <f>(D9*D10)*(D11+D12)</f>
+        <v>2.0096999999999997E-3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <f>(I9*I10)*(I11+I12)</f>
+        <v>1.16424E-3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>D13*1000</f>
+        <v>2.0096999999999996</v>
+      </c>
+      <c r="I14">
+        <f>I13*1000</f>
+        <v>1.1642399999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <f>D10*D9*D12</f>
+        <v>6.9299999999999993E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="2">
+        <f>D15*1000</f>
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>